--- a/data/strategies/光大场外策略结果.xlsx
+++ b/data/strategies/光大场外策略结果.xlsx
@@ -18,26 +18,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="202">
+  <si>
+    <t>易方达沪深300非银ETF联接A</t>
+  </si>
   <si>
     <t>广发中证全指可选消费ETF联接A</t>
   </si>
   <si>
-    <t>易方达沪深300非银ETF联接A</t>
+    <t xml:space="preserve">南方中证申万有色金属ETF联接A </t>
+  </si>
+  <si>
+    <t>天弘中证光伏产业A</t>
+  </si>
+  <si>
+    <t>富国中证军工</t>
   </si>
   <si>
     <t>富国中证新能源汽车</t>
   </si>
   <si>
-    <t>天弘中证光伏产业A</t>
-  </si>
-  <si>
-    <t>富国中证军工</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南方中证申万有色金属ETF联接A </t>
-  </si>
-  <si>
     <t>“后疫情时代”+消费、新能源 大宗商品</t>
   </si>
   <si>
@@ -68,73 +68,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>2.64%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>14.28%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>4.96%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>19.53%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>19.24%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>25.39%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>11.34%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>22.32%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>13.63%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>24.26%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>21.59%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>25.71%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -143,130 +140,127 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>000950.OF</t>
+  </si>
+  <si>
     <t>001133.OF</t>
   </si>
   <si>
-    <t>000950.OF</t>
+    <t>004432.OF</t>
+  </si>
+  <si>
+    <t>011102.OF</t>
+  </si>
+  <si>
+    <t>161024.OF</t>
   </si>
   <si>
     <t>161028.OF</t>
   </si>
   <si>
-    <t>011102.OF</t>
-  </si>
-  <si>
-    <t>161024.OF</t>
-  </si>
-  <si>
-    <t>004432.OF</t>
-  </si>
-  <si>
-    <t>-0.86%</t>
-  </si>
-  <si>
-    <t>-3.03%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>15.83%</t>
-  </si>
-  <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>5.43%</t>
-  </si>
-  <si>
-    <t>-1.19%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>29.61%</t>
-  </si>
-  <si>
-    <t>12.01%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>1.93%</t>
-  </si>
-  <si>
-    <t>-11.17%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>13.84%</t>
-  </si>
-  <si>
-    <t>-9.03%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>11.09%</t>
-  </si>
-  <si>
-    <t>14.25%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>34.71%</t>
-  </si>
-  <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>19.60%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>28.49%</t>
-  </si>
-  <si>
-    <t>24.35%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>18.91%</t>
-  </si>
-  <si>
-    <t>21.50%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
-  </si>
-  <si>
-    <t>36.05%</t>
-  </si>
-  <si>
-    <t>32.25%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
+    <t>-7.38%</t>
+  </si>
+  <si>
+    <t>-1.25%</t>
+  </si>
+  <si>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>23.45%</t>
+  </si>
+  <si>
+    <t>-0.00%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>-6.46%</t>
+  </si>
+  <si>
+    <t>0.31%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>29.49%</t>
+  </si>
+  <si>
+    <t>7.53%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>-16.88%</t>
+  </si>
+  <si>
+    <t>-0.08%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>20.84%</t>
+  </si>
+  <si>
+    <t>-9.91%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>17.67%</t>
+  </si>
+  <si>
+    <t>14.08%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>37.26%</t>
+  </si>
+  <si>
+    <t>32.58%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>14.78%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>30.09%</t>
+  </si>
+  <si>
+    <t>26.82%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>21.45%</t>
+  </si>
+  <si>
+    <t>18.64%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>36.31%</t>
+  </si>
+  <si>
+    <t>32.80%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -281,304 +275,298 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>601318.SH</t>
   </si>
   <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>601888.SH</t>
+  </si>
+  <si>
+    <t>300274.SZ</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>300450.SZ</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>600438.SH</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>600837.SH</t>
+  </si>
+  <si>
+    <t>601601.SH</t>
+  </si>
+  <si>
+    <t>002179.SZ</t>
+  </si>
+  <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>601888.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>300274.SZ</t>
-  </si>
-  <si>
-    <t>600547.SH</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>600438.SH</t>
-  </si>
-  <si>
-    <t>601600.SH</t>
-  </si>
-  <si>
-    <t>600219.SH</t>
-  </si>
-  <si>
-    <t>5.16%</t>
-  </si>
-  <si>
-    <t>4.04%</t>
-  </si>
-  <si>
-    <t>3.24%</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>1.99%</t>
-  </si>
-  <si>
-    <t>1.74%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>1.25%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.23%</t>
-  </si>
-  <si>
-    <t>1.14%</t>
-  </si>
-  <si>
-    <t>0.96%</t>
+    <t>601688.SH</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>492.86%</t>
+  </si>
+  <si>
+    <t>191.91%</t>
+  </si>
+  <si>
+    <t>158.34%</t>
+  </si>
+  <si>
+    <t>157.07%</t>
+  </si>
+  <si>
+    <t>150.38%</t>
+  </si>
+  <si>
+    <t>134.20%</t>
+  </si>
+  <si>
+    <t>125.95%</t>
+  </si>
+  <si>
+    <t>120.21%</t>
+  </si>
+  <si>
+    <t>119.68%</t>
+  </si>
+  <si>
+    <t>114.85%</t>
+  </si>
+  <si>
+    <t>112.08%</t>
+  </si>
+  <si>
+    <t>96.12%</t>
+  </si>
+  <si>
+    <t>82.21%</t>
+  </si>
+  <si>
+    <t>78.59%</t>
+  </si>
+  <si>
+    <t>70.18%</t>
+  </si>
+  <si>
+    <t>63.01%</t>
+  </si>
+  <si>
+    <t>59.15%</t>
+  </si>
+  <si>
+    <t>57.60%</t>
+  </si>
+  <si>
+    <t>56.61%</t>
+  </si>
+  <si>
+    <t>56.05%</t>
   </si>
   <si>
     <t>中国平安</t>
   </si>
   <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>海通证券</t>
+  </si>
+  <si>
+    <t>中国太保</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
     <t>赣锋锂业</t>
   </si>
   <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>中国中免</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>山东黄金</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>中国铝业</t>
-  </si>
-  <si>
-    <t>南山铝业</t>
+    <t>华泰证券</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
   </si>
   <si>
     <t>产险:机动车辆保险</t>
   </si>
   <si>
+    <t>证券经纪业务</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>商品贸易-免税商品</t>
+  </si>
+  <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>个人寿险</t>
+  </si>
+  <si>
+    <t>电连接器</t>
+  </si>
+  <si>
     <t>锂系列产品</t>
   </si>
   <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>证券经纪业务</t>
-  </si>
-  <si>
-    <t>其他业务</t>
-  </si>
-  <si>
-    <t>暖通空调</t>
-  </si>
-  <si>
-    <t>商品贸易-免税商品</t>
-  </si>
-  <si>
-    <t>精炼金属贸易</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>外购合质金</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>配合饲料</t>
-  </si>
-  <si>
-    <t>贸易板块</t>
-  </si>
-  <si>
-    <t>冷轧产品</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>-11.82%</t>
-  </si>
-  <si>
-    <t>-10.07%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>-16.68%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>48.90%</t>
-  </si>
-  <si>
-    <t>15.82%</t>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>-29.54%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>-16.18%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>-6.00%</t>
+  </si>
+  <si>
+    <t>-20.79%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>-11.08%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -587,55 +575,55 @@
     <t>标签占比</t>
   </si>
   <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>家电家具</t>
+    <t>国防军工</t>
   </si>
   <si>
     <t>商业贸易</t>
   </si>
   <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>25.69%</t>
-  </si>
-  <si>
-    <t>24.96%</t>
-  </si>
-  <si>
-    <t>13.44%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>8.39%</t>
-  </si>
-  <si>
-    <t>7.27%</t>
-  </si>
-  <si>
-    <t>3.91%</t>
-  </si>
-  <si>
-    <t>3.31%</t>
-  </si>
-  <si>
-    <t>3.20%</t>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>8.79%</t>
+  </si>
+  <si>
+    <t>7.47%</t>
+  </si>
+  <si>
+    <t>7.09%</t>
+  </si>
+  <si>
+    <t>4.27%</t>
+  </si>
+  <si>
+    <t>3.68%</t>
+  </si>
+  <si>
+    <t>2.45%</t>
+  </si>
+  <si>
+    <t>2.27%</t>
+  </si>
+  <si>
+    <t>2.10%</t>
+  </si>
+  <si>
+    <t>0.88%</t>
   </si>
 </sst>
 </file>
@@ -999,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,25 +1062,25 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>0.9973515591627509</v>
+      </c>
+      <c r="C3">
         <v>1.015057573073517</v>
       </c>
-      <c r="C3">
-        <v>0.9973515591627509</v>
-      </c>
       <c r="D3">
-        <v>1.067860508953817</v>
+        <v>1.053925925925926</v>
       </c>
       <c r="E3">
         <v>1.054286865447435</v>
       </c>
       <c r="F3">
-        <v>1.062350119904077</v>
+        <v>1.062381554011371</v>
       </c>
       <c r="G3">
-        <v>1.053925925925926</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="H3">
-        <v>1.040199832409307</v>
+        <v>1.043252998099363</v>
       </c>
       <c r="I3">
         <v>1.018168368380631</v>
@@ -1106,25 +1094,25 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>0.9929944468175993</v>
+      </c>
+      <c r="C4">
         <v>1.02204507430371</v>
       </c>
-      <c r="C4">
-        <v>0.9929944468175993</v>
-      </c>
       <c r="D4">
-        <v>1.074458058435438</v>
+        <v>1.065283950617284</v>
       </c>
       <c r="E4">
         <v>1.055649694073586</v>
       </c>
       <c r="F4">
-        <v>1.071143085531575</v>
+        <v>1.071172878500737</v>
       </c>
       <c r="G4">
-        <v>1.065283950617284</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="H4">
-        <v>1.046238014478792</v>
+        <v>1.048249232333824</v>
       </c>
       <c r="I4">
         <v>1.027111201157197</v>
@@ -1138,25 +1126,25 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.001025202904742</v>
+      </c>
+      <c r="C5">
         <v>1.013286093888397</v>
       </c>
-      <c r="C5">
-        <v>1.001025202904742</v>
-      </c>
       <c r="D5">
-        <v>1.05937794533459</v>
+        <v>1.070320987654321</v>
       </c>
       <c r="E5">
         <v>1.054249203785171</v>
       </c>
       <c r="F5">
-        <v>1.087130295763389</v>
+        <v>1.087123604969467</v>
       </c>
       <c r="G5">
-        <v>1.070320987654321</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="H5">
-        <v>1.047722165317906</v>
+        <v>1.045302597149885</v>
       </c>
       <c r="I5">
         <v>1.025290909062353</v>
@@ -1170,25 +1158,25 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.011362665527552</v>
+      </c>
+      <c r="C6">
         <v>1.023324475937408</v>
       </c>
-      <c r="C6">
-        <v>1.011362665527552</v>
-      </c>
       <c r="D6">
-        <v>1.086710650329878</v>
+        <v>1.109135802469136</v>
       </c>
       <c r="E6">
         <v>1.096142342393262</v>
       </c>
       <c r="F6">
-        <v>1.112709832134293</v>
+        <v>1.112707938513371</v>
       </c>
       <c r="G6">
-        <v>1.109135802469136</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="H6">
-        <v>1.074423539598176</v>
+        <v>1.069475147224829</v>
       </c>
       <c r="I6">
         <v>1.026858339183711</v>
@@ -1202,25 +1190,25 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.006236651003844</v>
+      </c>
+      <c r="C7">
         <v>1.026965849817931</v>
       </c>
-      <c r="C7">
-        <v>1.006236651003844</v>
-      </c>
       <c r="D7">
-        <v>1.077285579641847</v>
+        <v>1.105481481481482</v>
       </c>
       <c r="E7">
         <v>1.072662407051975</v>
       </c>
       <c r="F7">
-        <v>1.084732214228617</v>
+        <v>1.084754685196884</v>
       </c>
       <c r="G7">
-        <v>1.105481481481482</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="H7">
-        <v>1.066268136130059</v>
+        <v>1.060062433731896</v>
       </c>
       <c r="I7">
         <v>1.029917812005761</v>
@@ -1234,25 +1222,25 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>0.9841947885519008</v>
+      </c>
+      <c r="C8">
         <v>1.027457927369353</v>
       </c>
-      <c r="C8">
-        <v>0.9841947885519008</v>
-      </c>
       <c r="D8">
-        <v>1.04052780395853</v>
+        <v>1.064395061728395</v>
       </c>
       <c r="E8">
         <v>1.028778210639819</v>
       </c>
       <c r="F8">
-        <v>1.051159072741807</v>
+        <v>1.051168667087808</v>
       </c>
       <c r="G8">
-        <v>1.064395061728395</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="H8">
-        <v>1.036482491684401</v>
+        <v>1.031220137759269</v>
       </c>
       <c r="I8">
         <v>1.013866573688848</v>
@@ -1266,25 +1254,25 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.041178983340453</v>
+      </c>
+      <c r="C9">
         <v>1.046255289833678</v>
       </c>
-      <c r="C9">
-        <v>1.041178983340453</v>
-      </c>
       <c r="D9">
-        <v>1.063147973609802</v>
+        <v>1.087012345679012</v>
       </c>
       <c r="E9">
         <v>1.065146709907584</v>
       </c>
       <c r="F9">
-        <v>1.091127098321343</v>
+        <v>1.091124447252053</v>
       </c>
       <c r="G9">
-        <v>1.087012345679012</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="H9">
-        <v>1.067714296515937</v>
+        <v>1.062452730117434</v>
       </c>
       <c r="I9">
         <v>1.027660901099557</v>
@@ -1298,25 +1286,25 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.026655275523281</v>
+      </c>
+      <c r="C10">
         <v>1.043007577994292</v>
       </c>
-      <c r="C10">
-        <v>1.026655275523281</v>
-      </c>
       <c r="D10">
-        <v>1.032045240339303</v>
+        <v>1.054716049382716</v>
       </c>
       <c r="E10">
         <v>1.05656533971889</v>
       </c>
       <c r="F10">
-        <v>1.075939248601119</v>
+        <v>1.075963360707517</v>
       </c>
       <c r="G10">
-        <v>1.054716049382716</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="H10">
-        <v>1.047999462546808</v>
+        <v>1.043006461752672</v>
       </c>
       <c r="I10">
         <v>1.020386015005238</v>
@@ -1330,25 +1318,25 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.003673643741991</v>
+      </c>
+      <c r="C11">
         <v>1.022143489813995</v>
       </c>
-      <c r="C11">
-        <v>1.003673643741991</v>
-      </c>
       <c r="D11">
-        <v>1.005655042412818</v>
+        <v>1.036444444444445</v>
       </c>
       <c r="E11">
         <v>1.028610393875685</v>
       </c>
       <c r="F11">
-        <v>1.018385291766587</v>
+        <v>1.018372288902927</v>
       </c>
       <c r="G11">
-        <v>1.036444444444445</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="H11">
-        <v>1.022207159457244</v>
+        <v>1.015422235946133</v>
       </c>
       <c r="I11">
         <v>1.011430617658561</v>
@@ -1362,25 +1350,25 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.010679196924391</v>
+      </c>
+      <c r="C12">
         <v>1.02627694124594</v>
       </c>
-      <c r="C12">
-        <v>1.010679196924391</v>
-      </c>
       <c r="D12">
-        <v>1.02827521206409</v>
+        <v>1.045925925925926</v>
       </c>
       <c r="E12">
         <v>1.0260168339186</v>
       </c>
       <c r="F12">
-        <v>1.01119104716227</v>
+        <v>1.011212886923563</v>
       </c>
       <c r="G12">
-        <v>1.045925925925926</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="H12">
-        <v>1.028641239290458</v>
+        <v>1.024752159533613</v>
       </c>
       <c r="I12">
         <v>1.007914108598721</v>
@@ -1394,25 +1382,25 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.018111917983767</v>
+      </c>
+      <c r="C13">
         <v>1.034543844109832</v>
       </c>
-      <c r="C13">
-        <v>1.018111917983767</v>
-      </c>
       <c r="D13">
-        <v>1.034872761545712</v>
+        <v>1.060938271604938</v>
       </c>
       <c r="E13">
         <v>1.045476823103116</v>
       </c>
       <c r="F13">
-        <v>1.031175059952038</v>
+        <v>1.031164455674879</v>
       </c>
       <c r="G13">
-        <v>1.060938271604938</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="H13">
-        <v>1.041328820091637</v>
+        <v>1.035590453563449</v>
       </c>
       <c r="I13">
         <v>1.023142367573358</v>
@@ -1426,25 +1414,25 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.016830414352841</v>
+      </c>
+      <c r="C14">
         <v>1.020372010628875</v>
       </c>
-      <c r="C14">
-        <v>1.016830414352841</v>
-      </c>
       <c r="D14">
-        <v>1.008482563619227</v>
+        <v>1.025975308641975</v>
       </c>
       <c r="E14">
         <v>1.01723215267869</v>
       </c>
       <c r="F14">
-        <v>1.009592326139089</v>
+        <v>1.009580964413561</v>
       </c>
       <c r="G14">
-        <v>1.025975308641975</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="H14">
-        <v>1.018780038766814</v>
+        <v>1.014925847614468</v>
       </c>
       <c r="I14">
         <v>1.017160061629216</v>
@@ -1458,25 +1446,25 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.008714224690303</v>
+      </c>
+      <c r="C15">
         <v>1.028442082472198</v>
       </c>
-      <c r="C15">
-        <v>1.008714224690303</v>
-      </c>
       <c r="D15">
-        <v>1.051837888784166</v>
+        <v>1.05441975308642</v>
       </c>
       <c r="E15">
         <v>1.051551637967054</v>
       </c>
       <c r="F15">
-        <v>1.028776978417266</v>
+        <v>1.028795535902295</v>
       </c>
       <c r="G15">
-        <v>1.05441975308642</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="H15">
-        <v>1.038813406304677</v>
+        <v>1.038235574721797</v>
       </c>
       <c r="I15">
         <v>1.026434284942462</v>
@@ -1490,25 +1478,25 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.014438274241777</v>
+      </c>
+      <c r="C16">
         <v>1.041531345340026</v>
       </c>
-      <c r="C16">
-        <v>1.014438274241777</v>
-      </c>
       <c r="D16">
-        <v>1.073515551366635</v>
+        <v>1.089777777777778</v>
       </c>
       <c r="E16">
         <v>1.096222028615883</v>
       </c>
       <c r="F16">
-        <v>1.037569944044764</v>
+        <v>1.037586860391661</v>
       </c>
       <c r="G16">
-        <v>1.089777777777778</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="H16">
-        <v>1.061945329638574</v>
+        <v>1.058364174881634</v>
       </c>
       <c r="I16">
         <v>1.04011081950838</v>
@@ -1522,25 +1510,25 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>0.9966680905595899</v>
+      </c>
+      <c r="C17">
         <v>1.045664796771971</v>
       </c>
-      <c r="C17">
-        <v>0.9966680905595899</v>
-      </c>
       <c r="D17">
-        <v>1.100848256361923</v>
+        <v>1.099555555555556</v>
       </c>
       <c r="E17">
         <v>1.1325318961628</v>
       </c>
       <c r="F17">
-        <v>1.039968025579536</v>
+        <v>1.039955780164245</v>
       </c>
       <c r="G17">
-        <v>1.099555555555556</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="H17">
-        <v>1.070118223771167</v>
+        <v>1.070392657474178</v>
       </c>
       <c r="I17">
         <v>1.042515364113389</v>
@@ -1554,25 +1542,25 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>0.9996582656984193</v>
+      </c>
+      <c r="C18">
         <v>1.051176065347899</v>
       </c>
-      <c r="C18">
-        <v>0.9996582656984193</v>
-      </c>
       <c r="D18">
-        <v>1.098020735155514</v>
+        <v>1.114567901234568</v>
       </c>
       <c r="E18">
         <v>1.132837411620351</v>
       </c>
       <c r="F18">
-        <v>1.040767386091127</v>
+        <v>1.040798062750053</v>
       </c>
       <c r="G18">
-        <v>1.114567901234568</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="H18">
-        <v>1.076328052300651</v>
+        <v>1.072677149425416</v>
       </c>
       <c r="I18">
         <v>1.043693292561303</v>
@@ -1586,25 +1574,25 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>0.9690730457069628</v>
+      </c>
+      <c r="C19">
         <v>1.031099301249877</v>
       </c>
-      <c r="C19">
-        <v>0.9690730457069628</v>
-      </c>
       <c r="D19">
-        <v>1.067860508953817</v>
+        <v>1.095308641975309</v>
       </c>
       <c r="E19">
         <v>1.116352384129589</v>
       </c>
       <c r="F19">
-        <v>0.9760191846522783</v>
+        <v>0.9760475889660982</v>
       </c>
       <c r="G19">
-        <v>1.095308641975309</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="H19">
-        <v>1.04910667938544</v>
+        <v>1.04305531426735</v>
       </c>
       <c r="I19">
         <v>1.026047924411546</v>
@@ -1618,25 +1606,25 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>0.9704399829132848</v>
+      </c>
+      <c r="C20">
         <v>1.035429583702391</v>
       </c>
-      <c r="C20">
-        <v>0.9704399829132848</v>
-      </c>
       <c r="D20">
-        <v>1.073515551366635</v>
+        <v>1.088987654320988</v>
       </c>
       <c r="E20">
         <v>1.160845669263501</v>
       </c>
       <c r="F20">
-        <v>0.9736211031175059</v>
+        <v>0.9736260265319014</v>
       </c>
       <c r="G20">
-        <v>1.088987654320988</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="H20">
-        <v>1.053241807862832</v>
+        <v>1.04983316104381</v>
       </c>
       <c r="I20">
         <v>1.02984870687015</v>
@@ -1650,25 +1638,25 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>0.9568560444254592</v>
+      </c>
+      <c r="C21">
         <v>1.009743135518158</v>
       </c>
-      <c r="C21">
-        <v>0.9568560444254592</v>
-      </c>
       <c r="D21">
-        <v>1.033930254476909</v>
+        <v>1.051160493827161</v>
       </c>
       <c r="E21">
         <v>1.101433242986627</v>
       </c>
       <c r="F21">
-        <v>0.9608313349320544</v>
+        <v>0.9608338597599495</v>
       </c>
       <c r="G21">
-        <v>1.051160493827161</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="H21">
-        <v>1.021786255116893</v>
+        <v>1.017977730360772</v>
       </c>
       <c r="I21">
         <v>1.007424090364388</v>
@@ -1682,25 +1670,25 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>0.9419051687313114</v>
+      </c>
+      <c r="C22">
         <v>1.005216022045074</v>
       </c>
-      <c r="C22">
-        <v>0.9419051687313114</v>
-      </c>
       <c r="D22">
-        <v>1.015080113100848</v>
+        <v>1.039111111111111</v>
       </c>
       <c r="E22">
         <v>1.078692635912157</v>
       </c>
       <c r="F22">
-        <v>0.932853717026379</v>
+        <v>0.9328806064434618</v>
       </c>
       <c r="G22">
-        <v>1.039111111111111</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="H22">
-        <v>1.006846180362984</v>
+        <v>1.001542919082999</v>
       </c>
       <c r="I22">
         <v>0.9967065120596316</v>
@@ -1714,25 +1702,25 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>0.9428449380606577</v>
+      </c>
+      <c r="C23">
         <v>1.016041728176361</v>
       </c>
-      <c r="C23">
-        <v>0.9428449380606577</v>
-      </c>
       <c r="D23">
-        <v>1.016022620169651</v>
+        <v>1.05037037037037</v>
       </c>
       <c r="E23">
         <v>1.049587545687988</v>
       </c>
       <c r="F23">
-        <v>0.9280575539568345</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="G23">
-        <v>1.05037037037037</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="H23">
-        <v>1.008936404662107</v>
+        <v>1.001373654087811</v>
       </c>
       <c r="I23">
         <v>1.004110184997589</v>
@@ -1746,25 +1734,25 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>0.9418197351559162</v>
+      </c>
+      <c r="C24">
         <v>1.045763212282256</v>
       </c>
-      <c r="C24">
-        <v>0.9418197351559162</v>
-      </c>
       <c r="D24">
-        <v>1.057492931196984</v>
+        <v>1.079506172839506</v>
       </c>
       <c r="E24">
         <v>1.068398026010979</v>
       </c>
       <c r="F24">
-        <v>0.9424460431654677</v>
+        <v>0.9424615708570225</v>
       </c>
       <c r="G24">
-        <v>1.079506172839506</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="H24">
-        <v>1.031643208142604</v>
+        <v>1.026800714850817</v>
       </c>
       <c r="I24">
         <v>1.013770768841751</v>
@@ -1778,25 +1766,25 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>0.9288338316958563</v>
+      </c>
+      <c r="C25">
         <v>1.03985828166519</v>
       </c>
-      <c r="C25">
-        <v>0.9288338316958563</v>
-      </c>
       <c r="D25">
-        <v>1.054665409990575</v>
+        <v>1.085037037037037</v>
       </c>
       <c r="E25">
         <v>1.065269039940615</v>
       </c>
       <c r="F25">
-        <v>0.9136690647482015</v>
+        <v>0.9136660349547273</v>
       </c>
       <c r="G25">
-        <v>1.085037037037037</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="H25">
-        <v>1.026436268108333</v>
+        <v>1.019747601412709</v>
       </c>
       <c r="I25">
         <v>1.00506038061224</v>
@@ -1810,25 +1798,25 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>0.9278940623665101</v>
+      </c>
+      <c r="C26">
         <v>1.0271626808385</v>
       </c>
-      <c r="C26">
-        <v>0.9278940623665101</v>
-      </c>
       <c r="D26">
-        <v>1.0311027332705</v>
+        <v>1.041679012345679</v>
       </c>
       <c r="E26">
         <v>1.060847876045505</v>
       </c>
       <c r="F26">
-        <v>0.9024780175859313</v>
+        <v>0.9025057906927774</v>
       </c>
       <c r="G26">
-        <v>1.041679012345679</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="H26">
-        <v>1.005500869378139</v>
+        <v>1.003174105233987</v>
       </c>
       <c r="I26">
         <v>0.9939815709167896</v>
@@ -1842,25 +1830,25 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>0.9263562580093977</v>
+      </c>
+      <c r="C27">
         <v>1.019781517567169</v>
       </c>
-      <c r="C27">
-        <v>0.9263562580093977</v>
-      </c>
       <c r="D27">
-        <v>1.002827521206409</v>
+        <v>0.992888888888889</v>
       </c>
       <c r="E27">
         <v>1.05917508462052</v>
       </c>
       <c r="F27">
-        <v>0.8856914468425261</v>
+        <v>0.8857127816382397</v>
       </c>
       <c r="G27">
-        <v>0.992888888888889</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="H27">
-        <v>0.9827431009749896</v>
+        <v>0.9849168348716044</v>
       </c>
       <c r="I27">
         <v>0.9800160512383169</v>
@@ -1874,25 +1862,25 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>0.9222554463904313</v>
+      </c>
+      <c r="C28">
         <v>1.029032575533904</v>
       </c>
-      <c r="C28">
-        <v>0.9222554463904313</v>
-      </c>
       <c r="D28">
-        <v>1.019792648444863</v>
+        <v>1.030518518518519</v>
       </c>
       <c r="E28">
         <v>1.060683099236172</v>
       </c>
       <c r="F28">
-        <v>0.8880895283772982</v>
+        <v>0.8880817014108234</v>
       </c>
       <c r="G28">
-        <v>1.030518518518519</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="H28">
-        <v>0.998332255204665</v>
+        <v>0.9959679151986991</v>
       </c>
       <c r="I28">
         <v>0.9930973392952219</v>
@@ -1906,25 +1894,25 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>0.936437419906023</v>
+      </c>
+      <c r="C29">
         <v>1.048715677590788</v>
       </c>
-      <c r="C29">
-        <v>0.936437419906023</v>
-      </c>
       <c r="D29">
-        <v>1.04995287464656</v>
+        <v>1.078518518518519</v>
       </c>
       <c r="E29">
         <v>1.097629640279896</v>
       </c>
       <c r="F29">
-        <v>0.935251798561151</v>
+        <v>0.9352495262160455</v>
       </c>
       <c r="G29">
-        <v>1.078518518518519</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="H29">
-        <v>1.032498912169206</v>
+        <v>1.026212432493521</v>
       </c>
       <c r="I29">
         <v>1.014256075362292</v>
@@ -1938,25 +1926,25 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>0.9419051687313114</v>
+      </c>
+      <c r="C30">
         <v>1.070071843322508</v>
       </c>
-      <c r="C30">
-        <v>0.9419051687313114</v>
-      </c>
       <c r="D30">
-        <v>1.062205466540999</v>
+        <v>1.106172839506173</v>
       </c>
       <c r="E30">
         <v>1.124629843281323</v>
       </c>
       <c r="F30">
-        <v>0.9312549960031975</v>
+        <v>0.9312486839334596</v>
       </c>
       <c r="G30">
-        <v>1.106172839506173</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="H30">
-        <v>1.050063062726994</v>
+        <v>1.040383470768253</v>
       </c>
       <c r="I30">
         <v>1.024824449396979</v>
@@ -1970,25 +1958,25 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>0.9580521144809909</v>
+      </c>
+      <c r="C31">
         <v>1.064363743726011</v>
       </c>
-      <c r="C31">
-        <v>0.9580521144809909</v>
-      </c>
       <c r="D31">
-        <v>1.039585296889727</v>
+        <v>1.177382716049383</v>
       </c>
       <c r="E31">
         <v>1.115415402505215</v>
       </c>
       <c r="F31">
-        <v>0.9256594724220623</v>
+        <v>0.9256685618024847</v>
       </c>
       <c r="G31">
-        <v>1.177382716049383</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="H31">
-        <v>1.071219611091357</v>
+        <v>1.04089760346118</v>
       </c>
       <c r="I31">
         <v>1.038860644782327</v>
@@ -2002,25 +1990,25 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>0.9759931653139684</v>
+      </c>
+      <c r="C32">
         <v>1.066036807400846</v>
       </c>
-      <c r="C32">
-        <v>0.9759931653139684</v>
-      </c>
       <c r="D32">
-        <v>1.024505183788878</v>
+        <v>1.193679012345679</v>
       </c>
       <c r="E32">
         <v>1.094467242854446</v>
       </c>
       <c r="F32">
-        <v>0.9280575539568345</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="G32">
-        <v>1.193679012345679</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="H32">
-        <v>1.07623246730161</v>
+        <v>1.039003442031442</v>
       </c>
       <c r="I32">
         <v>1.052829305603327</v>
@@ -2034,25 +2022,25 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>0.955489107219137</v>
+      </c>
+      <c r="C33">
         <v>1.027654758389922</v>
       </c>
-      <c r="C33">
-        <v>0.955489107219137</v>
-      </c>
       <c r="D33">
-        <v>1.007540056550424</v>
+        <v>1.248592592592593</v>
       </c>
       <c r="E33">
         <v>1.059313993666311</v>
       </c>
       <c r="F33">
-        <v>0.8992805755395684</v>
+        <v>0.8992945883343861</v>
       </c>
       <c r="G33">
-        <v>1.248592592592593</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="H33">
-        <v>1.075444821542289</v>
+        <v>1.022394905577446</v>
       </c>
       <c r="I33">
         <v>1.045538713796369</v>
@@ -2066,25 +2054,25 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>0.9604442545920546</v>
+      </c>
+      <c r="C34">
         <v>1.016041728176361</v>
       </c>
-      <c r="C34">
-        <v>0.9604442545920546</v>
-      </c>
       <c r="D34">
-        <v>0.9896324222431668</v>
+        <v>1.233283950617284</v>
       </c>
       <c r="E34">
         <v>1.049910597181106</v>
       </c>
       <c r="F34">
-        <v>0.9224620303756994</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="G34">
-        <v>1.233283950617284</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="H34">
-        <v>1.068806876252331</v>
+        <v>1.015197239026542</v>
       </c>
       <c r="I34">
         <v>1.041481928221752</v>
@@ -2098,25 +2086,25 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>0.9528406663818879</v>
+      </c>
+      <c r="C35">
         <v>1.005511268575928</v>
       </c>
-      <c r="C35">
-        <v>0.9528406663818879</v>
-      </c>
       <c r="D35">
-        <v>0.9547596606974551</v>
+        <v>1.182617283950617</v>
       </c>
       <c r="E35">
         <v>1.015566538924763</v>
       </c>
       <c r="F35">
-        <v>0.9224620303756994</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="G35">
-        <v>1.182617283950617</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="H35">
-        <v>1.041390237946303</v>
+        <v>0.9912580476917954</v>
       </c>
       <c r="I35">
         <v>1.026555218929781</v>
@@ -2130,25 +2118,25 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>0.9695856471593336</v>
+      </c>
+      <c r="C36">
         <v>1.006200177147919</v>
       </c>
-      <c r="C36">
-        <v>0.9695856471593336</v>
-      </c>
       <c r="D36">
-        <v>0.9377945334590009</v>
+        <v>1.170172839506173</v>
       </c>
       <c r="E36">
         <v>1.01096638361685</v>
       </c>
       <c r="F36">
-        <v>0.9392486011191048</v>
+        <v>0.9392503684986313</v>
       </c>
       <c r="G36">
-        <v>1.170172839506173</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="H36">
-        <v>1.039721674170715</v>
+        <v>0.988584317498431</v>
       </c>
       <c r="I36">
         <v>1.020737822968348</v>
@@ -2162,25 +2150,25 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>0.9493378897906877</v>
+      </c>
+      <c r="C37">
         <v>0.9881901387658695</v>
       </c>
-      <c r="C37">
-        <v>0.9493378897906877</v>
-      </c>
       <c r="D37">
-        <v>0.9180018850141376</v>
+        <v>1.12079012345679</v>
       </c>
       <c r="E37">
         <v>1.004382151141824</v>
       </c>
       <c r="F37">
-        <v>0.9096722621902478</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="G37">
-        <v>1.12079012345679</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="H37">
-        <v>1.010766698413439</v>
+        <v>0.9661419721788587</v>
       </c>
       <c r="I37">
         <v>0.9995665223311676</v>
@@ -2194,25 +2182,25 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>0.9434429730884237</v>
+      </c>
+      <c r="C38">
         <v>1.013187678378112</v>
       </c>
-      <c r="C38">
-        <v>0.9434429730884237</v>
-      </c>
       <c r="D38">
-        <v>0.9538171536286523</v>
+        <v>1.159308641975309</v>
       </c>
       <c r="E38">
         <v>1.030001004310994</v>
       </c>
       <c r="F38">
-        <v>0.9248601119104717</v>
+        <v>0.9248789218782901</v>
       </c>
       <c r="G38">
-        <v>1.159308641975309</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="H38">
-        <v>1.035153672284676</v>
+        <v>0.9899292526230732</v>
       </c>
       <c r="I38">
         <v>1.019055741144727</v>
@@ -2226,25 +2214,25 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>0.9317385732592909</v>
+      </c>
+      <c r="C39">
         <v>1.00846373388446</v>
       </c>
-      <c r="C39">
-        <v>0.9317385732592909</v>
-      </c>
       <c r="D39">
-        <v>0.9575871819038644</v>
+        <v>1.122864197530864</v>
       </c>
       <c r="E39">
         <v>1.020928709569586</v>
       </c>
       <c r="F39">
-        <v>0.9304556354916067</v>
+        <v>0.9304590440092652</v>
       </c>
       <c r="G39">
-        <v>1.122864197530864</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="H39">
-        <v>1.020366445365779</v>
+        <v>0.9839877654876779</v>
       </c>
       <c r="I39">
         <v>1.010400322909452</v>
@@ -2258,25 +2246,25 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>0.9560871422469029</v>
+      </c>
+      <c r="C40">
         <v>1.017517960830627</v>
       </c>
-      <c r="C40">
-        <v>0.9560871422469029</v>
-      </c>
       <c r="D40">
-        <v>0.9651272384542884</v>
+        <v>1.161975308641976</v>
       </c>
       <c r="E40">
         <v>1.015002036206762</v>
       </c>
       <c r="F40">
-        <v>0.9288569144684253</v>
+        <v>0.9288797641608759</v>
       </c>
       <c r="G40">
-        <v>1.161975308641976</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="H40">
-        <v>1.038953200179275</v>
+        <v>0.9956315267164383</v>
       </c>
       <c r="I40">
         <v>1.024758485403896</v>
@@ -2290,25 +2278,25 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9433575395130286</v>
+      </c>
+      <c r="C41">
         <v>0.993012498769806</v>
       </c>
-      <c r="C41">
-        <v>0.9433575395130286</v>
-      </c>
       <c r="D41">
-        <v>0.9180018850141376</v>
+        <v>1.119012345679012</v>
       </c>
       <c r="E41">
         <v>0.951174497796652</v>
       </c>
       <c r="F41">
-        <v>0.9176658673061551</v>
+        <v>0.9176668772373132</v>
       </c>
       <c r="G41">
-        <v>1.119012345679012</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="H41">
-        <v>1.00500962809502</v>
+        <v>0.9607769017109702</v>
       </c>
       <c r="I41">
         <v>1.005478152568434</v>
@@ -2322,25 +2310,25 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9435284066638189</v>
+      </c>
+      <c r="C42">
         <v>0.9964570416297608</v>
       </c>
-      <c r="C42">
-        <v>0.9435284066638189</v>
-      </c>
       <c r="D42">
-        <v>0.9245994344957587</v>
+        <v>1.084641975308642</v>
       </c>
       <c r="E42">
         <v>0.9540098186036451</v>
       </c>
       <c r="F42">
-        <v>0.9000799360511591</v>
+        <v>0.9000842282585808</v>
       </c>
       <c r="G42">
-        <v>1.084641975308642</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="H42">
-        <v>0.9933851888683224</v>
+        <v>0.9581713031384118</v>
       </c>
       <c r="I42">
         <v>1.005715308829281</v>
@@ -2354,25 +2342,25 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9347287483981205</v>
+      </c>
+      <c r="C43">
         <v>0.9664403109930125</v>
       </c>
-      <c r="C43">
-        <v>0.9347287483981205</v>
-      </c>
       <c r="D43">
-        <v>0.8812441093308201</v>
+        <v>1.056197530864198</v>
       </c>
       <c r="E43">
         <v>0.9020909090602025</v>
       </c>
       <c r="F43">
-        <v>0.8441247002398082</v>
+        <v>0.8441250789639924</v>
       </c>
       <c r="G43">
-        <v>1.056197530864198</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="H43">
-        <v>0.9607644943310691</v>
+        <v>0.9222567103293126</v>
       </c>
       <c r="I43">
         <v>0.9826137761087841</v>
@@ -2386,25 +2374,25 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.9185818026484407</v>
+      </c>
+      <c r="C44">
         <v>0.9528589705737623</v>
       </c>
-      <c r="C44">
-        <v>0.9185818026484407</v>
-      </c>
       <c r="D44">
-        <v>0.8671065032987748</v>
+        <v>1.04</v>
       </c>
       <c r="E44">
         <v>0.8718393055121925</v>
       </c>
       <c r="F44">
-        <v>0.8025579536370904</v>
+        <v>0.8025373762897452</v>
       </c>
       <c r="G44">
-        <v>1.04</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="H44">
-        <v>0.9409103453170609</v>
+        <v>0.9028678018171937</v>
       </c>
       <c r="I44">
         <v>0.9593049279814547</v>
@@ -2418,25 +2406,25 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9113199487398547</v>
+      </c>
+      <c r="C45">
         <v>0.9615195354787914</v>
       </c>
-      <c r="C45">
-        <v>0.9113199487398547</v>
-      </c>
       <c r="D45">
-        <v>0.8821866163996231</v>
+        <v>1.039012345679012</v>
       </c>
       <c r="E45">
         <v>0.8783817104609686</v>
       </c>
       <c r="F45">
-        <v>0.7977617905675459</v>
+        <v>0.7977468940829648</v>
       </c>
       <c r="G45">
-        <v>1.039012345679012</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="H45">
-        <v>0.942673099308339</v>
+        <v>0.9081670893149584</v>
       </c>
       <c r="I45">
         <v>0.952121135020441</v>
@@ -2450,25 +2438,25 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9313968389577103</v>
+      </c>
+      <c r="C46">
         <v>0.9738214742643441</v>
       </c>
-      <c r="C46">
-        <v>0.9313968389577103</v>
-      </c>
       <c r="D46">
-        <v>0.9066918001885014</v>
+        <v>1.099950617283951</v>
       </c>
       <c r="E46">
         <v>0.910932533157181</v>
       </c>
       <c r="F46">
-        <v>0.8105515587529977</v>
+        <v>0.8105390608549169</v>
       </c>
       <c r="G46">
-        <v>1.099950617283951</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="H46">
-        <v>0.9759701650823078</v>
+        <v>0.9334405645882313</v>
       </c>
       <c r="I46">
         <v>0.9759262836671583</v>
@@ -2482,25 +2470,25 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9274668944895342</v>
+      </c>
+      <c r="C47">
         <v>0.9786438342682806</v>
       </c>
-      <c r="C47">
-        <v>0.9274668944895342</v>
-      </c>
       <c r="D47">
-        <v>0.9132893496701224</v>
+        <v>1.087901234567901</v>
       </c>
       <c r="E47">
         <v>0.9275902751170354</v>
       </c>
       <c r="F47">
-        <v>0.8049560351718624</v>
+        <v>0.8049589387239419</v>
       </c>
       <c r="G47">
-        <v>1.087901234567901</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="H47">
-        <v>0.9740881538917281</v>
+        <v>0.9356681098769689</v>
       </c>
       <c r="I47">
         <v>0.9772691220977807</v>
@@ -2514,25 +2502,25 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.9158479282357966</v>
+      </c>
+      <c r="C48">
         <v>0.965849817931306</v>
       </c>
-      <c r="C48">
-        <v>0.9158479282357966</v>
-      </c>
       <c r="D48">
-        <v>0.889726672950047</v>
+        <v>1.089876543209876</v>
       </c>
       <c r="E48">
         <v>0.8912915540710569</v>
       </c>
       <c r="F48">
-        <v>0.8001598721023181</v>
+        <v>0.8001684565171615</v>
       </c>
       <c r="G48">
-        <v>1.089876543209876</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="H48">
-        <v>0.9634774670112431</v>
+        <v>0.9194432287904917</v>
       </c>
       <c r="I48">
         <v>0.9696502808966706</v>
@@ -2546,25 +2534,25 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9205467748825287</v>
+      </c>
+      <c r="C49">
         <v>0.9761834465111702</v>
       </c>
-      <c r="C49">
-        <v>0.9205467748825287</v>
-      </c>
       <c r="D49">
-        <v>0.8906691800188501</v>
+        <v>1.068246913580247</v>
       </c>
       <c r="E49">
         <v>0.897361752707333</v>
       </c>
       <c r="F49">
-        <v>0.7985611510791367</v>
+        <v>0.7985891766687724</v>
       </c>
       <c r="G49">
-        <v>1.068246913580247</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="H49">
-        <v>0.9594907483369954</v>
+        <v>0.9204194813722036</v>
       </c>
       <c r="I49">
         <v>0.9730065916875945</v>
@@ -2578,25 +2566,25 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9089278086287911</v>
+      </c>
+      <c r="C50">
         <v>0.9900600334612735</v>
       </c>
-      <c r="C50">
-        <v>0.9089278086287911</v>
-      </c>
       <c r="D50">
-        <v>0.9123468426013195</v>
+        <v>1.074172839506173</v>
       </c>
       <c r="E50">
         <v>0.9007209027629924</v>
       </c>
       <c r="F50">
-        <v>0.8113509192645882</v>
+        <v>0.8113813434407243</v>
       </c>
       <c r="G50">
-        <v>1.074172839506173</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="H50">
-        <v>0.9659910233015271</v>
+        <v>0.9303919392607803</v>
       </c>
       <c r="I50">
         <v>0.9777371523344186</v>
@@ -2610,25 +2598,25 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9047415634344296</v>
+      </c>
+      <c r="C51">
         <v>0.9982285208148804</v>
       </c>
-      <c r="C51">
-        <v>0.9047415634344296</v>
-      </c>
       <c r="D51">
-        <v>0.9132893496701224</v>
+        <v>1.074271604938271</v>
       </c>
       <c r="E51">
         <v>0.9157457104830364</v>
       </c>
       <c r="F51">
-        <v>0.8201438848920863</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="G51">
-        <v>1.074271604938271</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="H51">
-        <v>0.9694242279069893</v>
+        <v>0.9340055491542003</v>
       </c>
       <c r="I51">
         <v>0.9853544229642648</v>
@@ -2642,25 +2630,25 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.890559589918838</v>
+      </c>
+      <c r="C52">
         <v>0.9790374963094184</v>
       </c>
-      <c r="C52">
-        <v>0.890559589918838</v>
-      </c>
       <c r="D52">
-        <v>0.8850141376060321</v>
+        <v>1.053037037037037</v>
       </c>
       <c r="E52">
         <v>0.89222859199089</v>
       </c>
       <c r="F52">
-        <v>0.8249400479616308</v>
+        <v>0.8249631501368709</v>
       </c>
       <c r="G52">
-        <v>1.053037037037037</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="H52">
-        <v>0.9515738324124667</v>
+        <v>0.9145935127975429</v>
       </c>
       <c r="I52">
         <v>0.9747907606433689</v>
@@ -2674,25 +2662,25 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.8987612131567706</v>
+      </c>
+      <c r="C53">
         <v>0.9923235901978151</v>
       </c>
-      <c r="C53">
-        <v>0.8987612131567706</v>
-      </c>
       <c r="D53">
-        <v>0.8963242224316682</v>
+        <v>1.056493827160494</v>
       </c>
       <c r="E53">
         <v>0.9128444958409477</v>
       </c>
       <c r="F53">
-        <v>0.8313349320543566</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="G53">
-        <v>1.056493827160494</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="H53">
-        <v>0.9605827810692097</v>
+        <v>0.9253281726987179</v>
       </c>
       <c r="I53">
         <v>0.9903535512972134</v>
@@ -2706,25 +2694,25 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9025202904741563</v>
+      </c>
+      <c r="C54">
         <v>0.9781517567168586</v>
       </c>
-      <c r="C54">
-        <v>0.9025202904741563</v>
-      </c>
       <c r="D54">
-        <v>0.8671065032987748</v>
+        <v>1.01758024691358</v>
       </c>
       <c r="E54">
         <v>0.8981579393880301</v>
       </c>
       <c r="F54">
-        <v>0.8257394084732214</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="G54">
-        <v>1.01758024691358</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="H54">
-        <v>0.940526153131557</v>
+        <v>0.907419690793573</v>
       </c>
       <c r="I54">
         <v>0.9767649687220733</v>
@@ -2738,25 +2726,25 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.8990175138829559</v>
+      </c>
+      <c r="C55">
         <v>0.9668339730341502</v>
       </c>
-      <c r="C55">
-        <v>0.8990175138829559</v>
-      </c>
       <c r="D55">
-        <v>0.8435438265786994</v>
+        <v>0.977283950617284</v>
       </c>
       <c r="E55">
         <v>0.8783354355934346</v>
       </c>
       <c r="F55">
-        <v>0.812150279776179</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="G55">
-        <v>0.977283950617284</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="H55">
-        <v>0.9184417060939263</v>
+        <v>0.8890209831615643</v>
       </c>
       <c r="I55">
         <v>0.9647296811269164</v>
@@ -2770,25 +2758,25 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.8961127723195215</v>
+      </c>
+      <c r="C56">
         <v>0.9638815077256176</v>
       </c>
-      <c r="C56">
-        <v>0.8961127723195215</v>
-      </c>
       <c r="D56">
-        <v>0.8576814326107447</v>
+        <v>0.9830123456790123</v>
       </c>
       <c r="E56">
         <v>0.8763398741526266</v>
       </c>
       <c r="F56">
-        <v>0.815347721822542</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="G56">
-        <v>0.9830123456790123</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="H56">
-        <v>0.9210236948261981</v>
+        <v>0.8934343590421673</v>
       </c>
       <c r="I56">
         <v>0.9670651205963146</v>
@@ -2802,25 +2790,25 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9037163605296882</v>
+      </c>
+      <c r="C57">
         <v>0.9840566873339238</v>
       </c>
-      <c r="C57">
-        <v>0.9037163605296882</v>
-      </c>
       <c r="D57">
-        <v>0.8934967012252591</v>
+        <v>1.015012345679013</v>
       </c>
       <c r="E57">
         <v>0.9085377806145685</v>
       </c>
       <c r="F57">
-        <v>0.8273381294964028</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="G57">
-        <v>1.015012345679013</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="H57">
-        <v>0.9451064794578736</v>
+        <v>0.9183704100189565</v>
       </c>
       <c r="I57">
         <v>0.9818881721848689</v>
@@ -2834,25 +2822,25 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9002135839384878</v>
+      </c>
+      <c r="C58">
         <v>0.9809073910048224</v>
       </c>
-      <c r="C58">
-        <v>0.9002135839384878</v>
-      </c>
       <c r="D58">
-        <v>0.8821866163996231</v>
+        <v>1.011950617283951</v>
       </c>
       <c r="E58">
         <v>0.9004560889225061</v>
       </c>
       <c r="F58">
-        <v>0.8409272581934453</v>
+        <v>0.8409138766056011</v>
       </c>
       <c r="G58">
-        <v>1.011950617283951</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="H58">
-        <v>0.9423269654307797</v>
+        <v>0.9137747023229538</v>
       </c>
       <c r="I58">
         <v>0.9823829021329928</v>
@@ -2866,25 +2854,25 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9000427167876975</v>
+      </c>
+      <c r="C59">
         <v>0.982482039169373</v>
       </c>
-      <c r="C59">
-        <v>0.9000427167876975</v>
-      </c>
       <c r="D59">
-        <v>0.8925541941564561</v>
+        <v>1.025185185185185</v>
       </c>
       <c r="E59">
         <v>0.9285429913222801</v>
       </c>
       <c r="F59">
-        <v>0.8577138289368506</v>
+        <v>0.857706885660139</v>
       </c>
       <c r="G59">
-        <v>1.025185185185185</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="H59">
-        <v>0.9530095312095277</v>
+        <v>0.9238126263327791</v>
       </c>
       <c r="I59">
         <v>0.9863752942857905</v>
@@ -2898,25 +2886,25 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.8889363519863306</v>
+      </c>
+      <c r="C60">
         <v>0.9785454187579962</v>
       </c>
-      <c r="C60">
-        <v>0.8889363519863306</v>
-      </c>
       <c r="D60">
-        <v>0.8812441093308201</v>
+        <v>1.002074074074074</v>
       </c>
       <c r="E60">
         <v>0.9224742563679453</v>
       </c>
       <c r="F60">
-        <v>0.8257394084732214</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="G60">
-        <v>1.002074074074074</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="H60">
-        <v>0.9373967006298984</v>
+        <v>0.9107975074369716</v>
       </c>
       <c r="I60">
         <v>0.9822462624330348</v>
@@ -2930,25 +2918,25 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.8960273387441263</v>
+      </c>
+      <c r="C61">
         <v>0.9933077453006595</v>
       </c>
-      <c r="C61">
-        <v>0.8960273387441263</v>
-      </c>
       <c r="D61">
-        <v>0.8982092365692743</v>
+        <v>1.010469135802469</v>
       </c>
       <c r="E61">
         <v>0.9312822720757296</v>
       </c>
       <c r="F61">
-        <v>0.8313349320543566</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="G61">
-        <v>1.010469135802469</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="H61">
-        <v>0.947332687579358</v>
+        <v>0.9226285390564453</v>
       </c>
       <c r="I61">
         <v>0.9912911823417532</v>
@@ -2962,25 +2950,25 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.8954293037163605</v>
+      </c>
+      <c r="C62">
         <v>1.005609684086212</v>
       </c>
-      <c r="C62">
-        <v>0.8954293037163605</v>
-      </c>
       <c r="D62">
-        <v>0.9095193213949105</v>
+        <v>1.018666666666667</v>
       </c>
       <c r="E62">
         <v>0.9289564814707436</v>
       </c>
       <c r="F62">
-        <v>0.8345323741007195</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="G62">
-        <v>1.018666666666667</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="H62">
-        <v>0.9533675273927386</v>
+        <v>0.9293504042097491</v>
       </c>
       <c r="I62">
         <v>0.9936391863812625</v>
@@ -2994,25 +2982,25 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.8950021358393849</v>
+      </c>
+      <c r="C63">
         <v>1.000098415510284</v>
       </c>
-      <c r="C63">
-        <v>0.8950021358393849</v>
-      </c>
       <c r="D63">
-        <v>0.9142318567389255</v>
+        <v>1.024</v>
       </c>
       <c r="E63">
         <v>0.9500423679626594</v>
       </c>
       <c r="F63">
-        <v>0.8425259792166268</v>
+        <v>0.8425457991156033</v>
       </c>
       <c r="G63">
-        <v>1.024</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="H63">
-        <v>0.9578351161604471</v>
+        <v>0.9336775187569988</v>
       </c>
       <c r="I63">
         <v>0.9962290583954103</v>
@@ -3026,25 +3014,25 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.88859461768475</v>
+      </c>
+      <c r="C64">
         <v>0.9961617950989076</v>
       </c>
-      <c r="C64">
-        <v>0.88859461768475</v>
-      </c>
       <c r="D64">
-        <v>0.9085768143261075</v>
+        <v>1.035654320987654</v>
       </c>
       <c r="E64">
         <v>0.9331814838379677</v>
       </c>
       <c r="F64">
-        <v>0.8377298161470823</v>
+        <v>0.8377553169088229</v>
       </c>
       <c r="G64">
-        <v>1.035654320987654</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="H64">
-        <v>0.9569182086733751</v>
+        <v>0.9289630009658776</v>
       </c>
       <c r="I64">
         <v>0.9970112028848254</v>
@@ -3058,25 +3046,25 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.8909013242204185</v>
+      </c>
+      <c r="C65">
         <v>0.9957681330577699</v>
       </c>
-      <c r="C65">
-        <v>0.8909013242204185</v>
-      </c>
       <c r="D65">
-        <v>0.9038642789820923</v>
+        <v>1.048098765432099</v>
       </c>
       <c r="E65">
         <v>0.924964936373183</v>
       </c>
       <c r="F65">
-        <v>0.8353317346123101</v>
+        <v>0.8353337544746262</v>
       </c>
       <c r="G65">
-        <v>1.048098765432099</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="H65">
-        <v>0.959664104826319</v>
+        <v>0.9279161667362664</v>
       </c>
       <c r="I65">
         <v>0.9983728881706143</v>
@@ -3090,25 +3078,25 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.879367791542076</v>
+      </c>
+      <c r="C66">
         <v>0.9892727093789982</v>
       </c>
-      <c r="C66">
-        <v>0.879367791542076</v>
-      </c>
       <c r="D66">
-        <v>0.8906691800188501</v>
+        <v>1.045728395061728</v>
       </c>
       <c r="E66">
         <v>0.9092496929927127</v>
       </c>
       <c r="F66">
-        <v>0.8401278976818545</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="G66">
-        <v>1.045728395061728</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="H66">
-        <v>0.9531644003032289</v>
+        <v>0.9190437218876021</v>
       </c>
       <c r="I66">
         <v>0.9949945893819959</v>
@@ -3122,25 +3110,25 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.8684322938914992</v>
+      </c>
+      <c r="C67">
         <v>0.9712626709969491</v>
       </c>
-      <c r="C67">
-        <v>0.8684322938914992</v>
-      </c>
       <c r="D67">
-        <v>0.8633364750235627</v>
+        <v>1.004543209876543</v>
       </c>
       <c r="E67">
         <v>0.8843249628365525</v>
       </c>
       <c r="F67">
-        <v>0.8145483613109512</v>
+        <v>0.8145399031375026</v>
       </c>
       <c r="G67">
-        <v>1.004543209876543</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="H67">
-        <v>0.9260904811991129</v>
+        <v>0.8950201084702936</v>
       </c>
       <c r="I67">
         <v>0.9779036328883906</v>
@@ -3154,25 +3142,25 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.8651003844510892</v>
+      </c>
+      <c r="C68">
         <v>0.957189253026277</v>
       </c>
-      <c r="C68">
-        <v>0.8651003844510892</v>
-      </c>
       <c r="D68">
-        <v>0.8671065032987748</v>
+        <v>0.9978271604938271</v>
       </c>
       <c r="E68">
         <v>0.8787236772284079</v>
       </c>
       <c r="F68">
-        <v>0.812150279776179</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="G68">
-        <v>0.9978271604938271</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="H68">
-        <v>0.920450051967485</v>
+        <v>0.8916900740619452</v>
       </c>
       <c r="I68">
         <v>0.9752902023052845</v>
@@ -3186,25 +3174,25 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.8731311405382315</v>
+      </c>
+      <c r="C69">
         <v>0.9792343273299872</v>
       </c>
-      <c r="C69">
-        <v>0.8731311405382315</v>
-      </c>
       <c r="D69">
-        <v>0.9038642789820923</v>
+        <v>1.020246913580247</v>
       </c>
       <c r="E69">
         <v>0.891903035349833</v>
       </c>
       <c r="F69">
-        <v>0.8233413269384493</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="G69">
-        <v>1.020246913580247</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="H69">
-        <v>0.9396855615588198</v>
+        <v>0.914063697767046</v>
       </c>
       <c r="I69">
         <v>0.9858805643376666</v>
@@ -3218,25 +3206,25 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.8634771465185817</v>
+      </c>
+      <c r="C70">
         <v>0.9749040448774727</v>
       </c>
-      <c r="C70">
-        <v>0.8634771465185817</v>
-      </c>
       <c r="D70">
-        <v>0.9038642789820923</v>
+        <v>1.035358024691358</v>
       </c>
       <c r="E70">
         <v>0.8973868604821752</v>
       </c>
       <c r="F70">
-        <v>0.8217426059152678</v>
+        <v>0.8217519477784797</v>
       </c>
       <c r="G70">
-        <v>1.035358024691358</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="H70">
-        <v>0.9427222626772263</v>
+        <v>0.9137780929702352</v>
       </c>
       <c r="I70">
         <v>0.9857627714928752</v>
@@ -3250,25 +3238,25 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.8679196924391285</v>
+      </c>
+      <c r="C71">
         <v>0.9870091526424564</v>
       </c>
-      <c r="C71">
-        <v>0.8679196924391285</v>
-      </c>
       <c r="D71">
-        <v>0.9029217719132893</v>
+        <v>1.029827160493827</v>
       </c>
       <c r="E71">
         <v>0.8934466568434843</v>
       </c>
       <c r="F71">
-        <v>0.8225419664268584</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="G71">
-        <v>1.029827160493827</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="H71">
-        <v>0.9432610100970319</v>
+        <v>0.9153302470406701</v>
       </c>
       <c r="I71">
         <v>0.9956777878817863</v>
@@ -3282,25 +3270,25 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.8821016659547201</v>
+      </c>
+      <c r="C72">
         <v>1.009743135518158</v>
       </c>
-      <c r="C72">
-        <v>0.8821016659547201</v>
-      </c>
       <c r="D72">
-        <v>0.9557021677662583</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="E72">
         <v>0.9234306599257733</v>
       </c>
       <c r="F72">
-        <v>0.8337330135891287</v>
+        <v>0.8337544746262372</v>
       </c>
       <c r="G72">
-        <v>1.066666666666667</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="H72">
-        <v>0.972028858791317</v>
+        <v>0.9476109930640507</v>
       </c>
       <c r="I72">
         <v>1.009132871899496</v>
@@ -3314,25 +3302,25 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.8761213156770611</v>
+      </c>
+      <c r="C73">
         <v>1.004330282452514</v>
       </c>
-      <c r="C73">
-        <v>0.8761213156770611</v>
-      </c>
       <c r="D73">
-        <v>0.9509896324222431</v>
+        <v>1.057086419753086</v>
       </c>
       <c r="E73">
         <v>0.9349364666335124</v>
       </c>
       <c r="F73">
-        <v>0.8297362110311751</v>
+        <v>0.8297536323436513</v>
       </c>
       <c r="G73">
-        <v>1.057086419753086</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="H73">
-        <v>0.9672381443101088</v>
+        <v>0.9438955181606653</v>
       </c>
       <c r="I73">
         <v>1.009648019274051</v>
@@ -3346,25 +3334,25 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.8731311405382315</v>
+      </c>
+      <c r="C74">
         <v>1.00088573959256</v>
       </c>
-      <c r="C74">
-        <v>0.8731311405382315</v>
-      </c>
       <c r="D74">
-        <v>0.9509896324222431</v>
+        <v>1.049876543209876</v>
       </c>
       <c r="E74">
         <v>0.933751897579194</v>
       </c>
       <c r="F74">
-        <v>0.8225419664268584</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="G74">
-        <v>1.049876543209876</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="H74">
-        <v>0.9628433134886063</v>
+        <v>0.9410849021746364</v>
       </c>
       <c r="I74">
         <v>1.008347586267553</v>
@@ -3378,25 +3366,25 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.8756941478000853</v>
+      </c>
+      <c r="C75">
         <v>1.000787324082275</v>
       </c>
-      <c r="C75">
-        <v>0.8756941478000853</v>
-      </c>
       <c r="D75">
-        <v>0.9528746465598491</v>
+        <v>1.054024691358025</v>
       </c>
       <c r="E75">
         <v>0.9361801740678118</v>
       </c>
       <c r="F75">
-        <v>0.8225419664268584</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="G75">
-        <v>1.054024691358025</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="H75">
-        <v>0.9651056449441466</v>
+        <v>0.9428392694540122</v>
       </c>
       <c r="I75">
         <v>1.012306996423809</v>
@@ -3410,25 +3398,25 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>0.8769756514310123</v>
+      </c>
+      <c r="C76">
         <v>1.00177147918512</v>
       </c>
-      <c r="C76">
-        <v>0.8769756514310123</v>
-      </c>
       <c r="D76">
-        <v>0.9641847313854853</v>
+        <v>1.065086419753086</v>
       </c>
       <c r="E76">
         <v>0.9450422615642414</v>
       </c>
       <c r="F76">
-        <v>0.8201438848920863</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="G76">
-        <v>1.065086419753086</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="H76">
-        <v>0.9710963272858604</v>
+        <v>0.9488885478383768</v>
       </c>
       <c r="I76">
         <v>1.015022514139068</v>
@@ -3442,25 +3430,25 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.8611704399829132</v>
+      </c>
+      <c r="C77">
         <v>0.99488239346521</v>
       </c>
-      <c r="C77">
-        <v>0.8611704399829132</v>
-      </c>
       <c r="D77">
-        <v>0.9547596606974551</v>
+        <v>1.072987654320988</v>
       </c>
       <c r="E77">
         <v>0.9400441536546279</v>
       </c>
       <c r="F77">
-        <v>0.8193445243804955</v>
+        <v>0.819330385344283</v>
       </c>
       <c r="G77">
-        <v>1.072987654320988</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="H77">
-        <v>0.9681712248726906</v>
+        <v>0.9421565116451944</v>
       </c>
       <c r="I77">
         <v>1.011864095327393</v>
@@ -3474,25 +3462,25 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.8591200341734301</v>
+      </c>
+      <c r="C78">
         <v>0.996260210609192</v>
       </c>
-      <c r="C78">
-        <v>0.8591200341734301</v>
-      </c>
       <c r="D78">
-        <v>0.945334590009425</v>
+        <v>1.075259259259259</v>
       </c>
       <c r="E78">
         <v>0.937905123235827</v>
       </c>
       <c r="F78">
-        <v>0.8089528377298162</v>
+        <v>0.8089597810065277</v>
       </c>
       <c r="G78">
-        <v>1.075259259259259</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="H78">
-        <v>0.9663913777758589</v>
+        <v>0.9377948904370685</v>
       </c>
       <c r="I78">
         <v>1.012434212696184</v>
@@ -3506,25 +3494,25 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>0.8608287056813327</v>
+      </c>
+      <c r="C79">
         <v>1.004723944493652</v>
       </c>
-      <c r="C79">
-        <v>0.8608287056813327</v>
-      </c>
       <c r="D79">
-        <v>0.9679547596606973</v>
+        <v>1.075654320987654</v>
       </c>
       <c r="E79">
         <v>0.9534557023978826</v>
       </c>
       <c r="F79">
-        <v>0.815347721822542</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="G79">
-        <v>1.075654320987654</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="H79">
-        <v>0.9731532766825969</v>
+        <v>0.9494450493308761</v>
       </c>
       <c r="I79">
         <v>1.019259915409032</v>
@@ -3538,25 +3526,25 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>0.8772319521571976</v>
+      </c>
+      <c r="C80">
         <v>1.00600334612735</v>
       </c>
-      <c r="C80">
-        <v>0.8772319521571976</v>
-      </c>
       <c r="D80">
-        <v>0.9651272384542884</v>
+        <v>1.085530864197531</v>
       </c>
       <c r="E80">
         <v>0.9500112084259441</v>
       </c>
       <c r="F80">
-        <v>0.815347721822542</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="G80">
-        <v>1.085530864197531</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="H80">
-        <v>0.9787286644508636</v>
+        <v>0.9522202556359427</v>
       </c>
       <c r="I80">
         <v>1.019603870515823</v>
@@ -3570,25 +3558,25 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>0.8660401537804356</v>
+      </c>
+      <c r="C81">
         <v>1.000492077551422</v>
       </c>
-      <c r="C81">
-        <v>0.8660401537804356</v>
-      </c>
       <c r="D81">
-        <v>0.9839773798303488</v>
+        <v>1.083358024691358</v>
       </c>
       <c r="E81">
         <v>0.9729243892308588</v>
       </c>
       <c r="F81">
-        <v>0.7889688249400479</v>
+        <v>0.7889555695935986</v>
       </c>
       <c r="G81">
-        <v>1.083358024691358</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="H81">
-        <v>0.9768643928147022</v>
+        <v>0.9549828310929294</v>
       </c>
       <c r="I81">
         <v>1.018626975189686</v>
@@ -3602,25 +3590,25 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.8546774882528833</v>
+      </c>
+      <c r="C82">
         <v>0.9900600334612735</v>
       </c>
-      <c r="C82">
-        <v>0.8546774882528833</v>
-      </c>
       <c r="D82">
-        <v>0.9764373232799246</v>
+        <v>1.109135802469136</v>
       </c>
       <c r="E82">
         <v>0.9686533653256675</v>
       </c>
       <c r="F82">
-        <v>0.7993605115907274</v>
+        <v>0.7993788165929669</v>
       </c>
       <c r="G82">
-        <v>1.109135802469136</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="H82">
-        <v>0.9815098255278166</v>
+        <v>0.9523013120028059</v>
       </c>
       <c r="I82">
         <v>1.01919866312974</v>
@@ -3634,25 +3622,25 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.8450234942332335</v>
+      </c>
+      <c r="C83">
         <v>0.9718531640586557</v>
       </c>
-      <c r="C83">
-        <v>0.8450234942332335</v>
-      </c>
       <c r="D83">
-        <v>0.9500471253534402</v>
+        <v>1.136987654320988</v>
       </c>
       <c r="E83">
         <v>0.9428060651827108</v>
       </c>
       <c r="F83">
-        <v>0.7881694644284573</v>
+        <v>0.7881659296694041</v>
       </c>
       <c r="G83">
-        <v>1.136987654320988</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="H83">
-        <v>0.9789874498816541</v>
+        <v>0.9378415334188047</v>
       </c>
       <c r="I83">
         <v>1.012145227583629</v>
@@ -3666,25 +3654,25 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.8423750533959845</v>
+      </c>
+      <c r="C84">
         <v>0.9788406652888496</v>
       </c>
-      <c r="C84">
-        <v>0.8423750533959845</v>
-      </c>
       <c r="D84">
-        <v>0.9547596606974551</v>
+        <v>1.191012345679012</v>
       </c>
       <c r="E84">
         <v>0.952361065339775</v>
       </c>
       <c r="F84">
-        <v>0.7777777777777777</v>
+        <v>0.7777953253316489</v>
       </c>
       <c r="G84">
-        <v>1.191012345679012</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="H84">
-        <v>0.9979795816701469</v>
+        <v>0.9460029218687944</v>
       </c>
       <c r="I84">
         <v>1.017100379921189</v>
@@ -3698,25 +3686,25 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.8492951730029901</v>
+      </c>
+      <c r="C85">
         <v>0.9784470032477118</v>
       </c>
-      <c r="C85">
-        <v>0.8492951730029901</v>
-      </c>
       <c r="D85">
-        <v>0.9387370405278039</v>
+        <v>1.144296296296296</v>
       </c>
       <c r="E85">
         <v>0.9436933097688046</v>
       </c>
       <c r="F85">
-        <v>0.7961630695443646</v>
+        <v>0.7961676142345757</v>
       </c>
       <c r="G85">
-        <v>1.144296296296296</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="H85">
-        <v>0.9829792239229042</v>
+        <v>0.9377577258015676</v>
       </c>
       <c r="I85">
         <v>1.013967090249737</v>
@@ -3730,25 +3718,25 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.8471593336181119</v>
+      </c>
+      <c r="C86">
         <v>0.9866154906013187</v>
       </c>
-      <c r="C86">
-        <v>0.8471593336181119</v>
-      </c>
       <c r="D86">
-        <v>0.942507068803016</v>
+        <v>1.149432098765432</v>
       </c>
       <c r="E86">
         <v>0.9495191579640454</v>
       </c>
       <c r="F86">
-        <v>0.7929656274980016</v>
+        <v>0.7929564118761845</v>
       </c>
       <c r="G86">
-        <v>1.149432098765432</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="H86">
-        <v>0.9864034166790527</v>
+        <v>0.9408597852130389</v>
       </c>
       <c r="I86">
         <v>1.022763859898761</v>
@@ -3762,25 +3750,25 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.8411789833404527</v>
+      </c>
+      <c r="C87">
         <v>0.9680149591575633</v>
       </c>
-      <c r="C87">
-        <v>0.8411789833404527</v>
-      </c>
       <c r="D87">
-        <v>0.9236569274269556</v>
+        <v>1.095111111111111</v>
       </c>
       <c r="E87">
         <v>0.9310161634396796</v>
       </c>
       <c r="F87">
-        <v>0.7905675459632294</v>
+        <v>0.7905874921036008</v>
       </c>
       <c r="G87">
-        <v>1.095111111111111</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="H87">
-        <v>0.9599261069426145</v>
+        <v>0.9222084190605713</v>
       </c>
       <c r="I87">
         <v>1.011295548529867</v>
@@ -3794,25 +3782,25 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.8879965826569842</v>
+      </c>
+      <c r="C88">
         <v>0.9839582718236394</v>
       </c>
-      <c r="C88">
-        <v>0.8879965826569842</v>
-      </c>
       <c r="D88">
-        <v>0.9519321394910462</v>
+        <v>1.100246913580247</v>
       </c>
       <c r="E88">
         <v>0.9443479978125836</v>
       </c>
       <c r="F88">
-        <v>0.818545163868905</v>
+        <v>0.8185407454200885</v>
       </c>
       <c r="G88">
-        <v>1.100246913580247</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="H88">
-        <v>0.9799445898721665</v>
+        <v>0.9473065669152194</v>
       </c>
       <c r="I88">
         <v>1.024923395386604</v>
@@ -3826,25 +3814,25 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>0.8757795813754804</v>
+      </c>
+      <c r="C89">
         <v>0.9970475346914672</v>
       </c>
-      <c r="C89">
-        <v>0.8757795813754804</v>
-      </c>
       <c r="D89">
-        <v>0.9924599434495758</v>
+        <v>1.13037037037037</v>
       </c>
       <c r="E89">
         <v>0.9721459919152964</v>
       </c>
       <c r="F89">
-        <v>0.8233413269384493</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="G89">
-        <v>1.13037037037037</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="H89">
-        <v>0.9980770308069689</v>
+        <v>0.9677351260707309</v>
       </c>
       <c r="I89">
         <v>1.033143765381782</v>
@@ -3858,25 +3846,25 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>0.8791114908158905</v>
+      </c>
+      <c r="C90">
         <v>0.9993110914280091</v>
       </c>
-      <c r="C90">
-        <v>0.8791114908158905</v>
-      </c>
       <c r="D90">
-        <v>0.9934024505183789</v>
+        <v>1.144098765432099</v>
       </c>
       <c r="E90">
         <v>0.9680804182887734</v>
       </c>
       <c r="F90">
-        <v>0.8401278976818545</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="G90">
-        <v>1.144098765432099</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="H90">
-        <v>1.005061615887846</v>
+        <v>0.9719024866604667</v>
       </c>
       <c r="I90">
         <v>1.036514211314081</v>
@@ -3890,25 +3878,25 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>0.8744126441691584</v>
+      </c>
+      <c r="C91">
         <v>1.003936620411377</v>
       </c>
-      <c r="C91">
-        <v>0.8744126441691584</v>
-      </c>
       <c r="D91">
-        <v>1.026390197926484</v>
+        <v>1.150123456790124</v>
       </c>
       <c r="E91">
         <v>0.9840320744505197</v>
       </c>
       <c r="F91">
-        <v>0.841726618705036</v>
+        <v>0.8417561591914087</v>
       </c>
       <c r="G91">
-        <v>1.150123456790124</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="H91">
-        <v>1.012596493738456</v>
+        <v>0.9853597765224336</v>
       </c>
       <c r="I91">
         <v>1.034125372421711</v>
@@ -3922,25 +3910,25 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>0.883981204613413</v>
+      </c>
+      <c r="C92">
         <v>1.006790670209625</v>
       </c>
-      <c r="C92">
-        <v>0.883981204613413</v>
-      </c>
       <c r="D92">
-        <v>1.032045240339303</v>
+        <v>1.117037037037037</v>
       </c>
       <c r="E92">
         <v>0.9736231566192596</v>
       </c>
       <c r="F92">
-        <v>0.8433253397282174</v>
+        <v>0.8433354390397979</v>
       </c>
       <c r="G92">
-        <v>1.117037037037037</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="H92">
-        <v>1.003442751977685</v>
+        <v>0.9847375924921684</v>
       </c>
       <c r="I92">
         <v>1.028521574152166</v>
@@ -3954,25 +3942,25 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>0.8713370354549338</v>
+      </c>
+      <c r="C93">
         <v>1.004822360003937</v>
       </c>
-      <c r="C93">
-        <v>0.8713370354549338</v>
-      </c>
       <c r="D93">
-        <v>1.027332704995288</v>
+        <v>1.123061728395062</v>
       </c>
       <c r="E93">
         <v>0.9772662891192925</v>
       </c>
       <c r="F93">
-        <v>0.8273381294964028</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="G93">
-        <v>1.123061728395062</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="H93">
-        <v>1.001070551195586</v>
+        <v>0.9800062117590116</v>
       </c>
       <c r="I93">
         <v>1.025246933066964</v>
@@ -3986,25 +3974,25 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>0.8809910294745833</v>
+      </c>
+      <c r="C94">
         <v>1.004035035921661</v>
       </c>
-      <c r="C94">
-        <v>0.8809910294745833</v>
-      </c>
       <c r="D94">
-        <v>1.02827521206409</v>
+        <v>1.115358024691358</v>
       </c>
       <c r="E94">
         <v>0.9756034056951414</v>
       </c>
       <c r="F94">
-        <v>0.8345323741007195</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="G94">
-        <v>1.115358024691358</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="H94">
-        <v>1.000747788370104</v>
+        <v>0.981582535960591</v>
       </c>
       <c r="I94">
         <v>1.027800681942043</v>
@@ -4018,25 +4006,25 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>0.9152498932080306</v>
+      </c>
+      <c r="C95">
         <v>1.016829052258636</v>
       </c>
-      <c r="C95">
-        <v>0.9152498932080306</v>
-      </c>
       <c r="D95">
-        <v>1.037700282752121</v>
+        <v>1.124345679012346</v>
       </c>
       <c r="E95">
         <v>0.9845166094686035</v>
       </c>
       <c r="F95">
-        <v>0.8617106314948043</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="G95">
-        <v>1.124345679012346</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="H95">
-        <v>1.016719522412115</v>
+        <v>0.9976393159586983</v>
       </c>
       <c r="I95">
         <v>1.0396663478407</v>
@@ -4050,25 +4038,25 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>0.9142246903032891</v>
+      </c>
+      <c r="C96">
         <v>1.019683102056884</v>
       </c>
-      <c r="C96">
-        <v>0.9142246903032891</v>
-      </c>
       <c r="D96">
-        <v>1.032045240339303</v>
+        <v>1.134123456790123</v>
       </c>
       <c r="E96">
         <v>0.9717996341020328</v>
       </c>
       <c r="F96">
-        <v>0.8617106314948043</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="G96">
-        <v>1.134123456790123</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="H96">
-        <v>1.018236171094946</v>
+        <v>0.9957705689487479</v>
       </c>
       <c r="I96">
         <v>1.041007615700059</v>
@@ -4082,25 +4070,25 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>0.916104228961982</v>
+      </c>
+      <c r="C97">
         <v>1.028146835941344</v>
       </c>
-      <c r="C97">
-        <v>0.916104228961982</v>
-      </c>
       <c r="D97">
-        <v>1.036757775683318</v>
+        <v>1.134320987654321</v>
       </c>
       <c r="E97">
         <v>0.9828638873748538</v>
       </c>
       <c r="F97">
-        <v>0.8689048760991207</v>
+        <v>0.8689197725837019</v>
       </c>
       <c r="G97">
-        <v>1.134320987654321</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="H97">
-        <v>1.022586526266794</v>
+        <v>1.00111139570796</v>
       </c>
       <c r="I97">
         <v>1.049991283329486</v>
@@ -4114,25 +4102,25 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>0.9245621529260999</v>
+      </c>
+      <c r="C98">
         <v>1.023521306957977</v>
       </c>
-      <c r="C98">
-        <v>0.9245621529260999</v>
-      </c>
       <c r="D98">
-        <v>1.079170593779453</v>
+        <v>1.150913580246914</v>
       </c>
       <c r="E98">
         <v>0.9931219896706839</v>
       </c>
       <c r="F98">
-        <v>0.8729016786570745</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="G98">
-        <v>1.150913580246914</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="H98">
-        <v>1.034947038493568</v>
+        <v>1.019150513959942</v>
       </c>
       <c r="I98">
         <v>1.047283618470546</v>
@@ -4146,25 +4134,25 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>0.9200341734301579</v>
+      </c>
+      <c r="C99">
         <v>1.020864088180297</v>
       </c>
-      <c r="C99">
-        <v>0.9200341734301579</v>
-      </c>
       <c r="D99">
-        <v>1.130065975494816</v>
+        <v>1.181432098765432</v>
       </c>
       <c r="E99">
         <v>1.033262650631168</v>
       </c>
       <c r="F99">
-        <v>0.8976818545163868</v>
+        <v>0.8976626658243841</v>
       </c>
       <c r="G99">
-        <v>1.181432098765432</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="H99">
-        <v>1.056536449937031</v>
+        <v>1.045232215487147</v>
       </c>
       <c r="I99">
         <v>1.0568358328975</v>
@@ -4178,25 +4166,25 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>0.9070482699700982</v>
+      </c>
+      <c r="C100">
         <v>1.025489617163665</v>
       </c>
-      <c r="C100">
-        <v>0.9070482699700982</v>
-      </c>
       <c r="D100">
-        <v>1.116870876531574</v>
+        <v>1.183111111111111</v>
       </c>
       <c r="E100">
         <v>1.027332289915761</v>
       </c>
       <c r="F100">
-        <v>0.8928856914468426</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="G100">
-        <v>1.183111111111111</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="H100">
-        <v>1.053037881847766</v>
+        <v>1.0384508933322</v>
       </c>
       <c r="I100">
         <v>1.058527338148705</v>
@@ -4210,25 +4198,25 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>0.8967962409226826</v>
+      </c>
+      <c r="C101">
         <v>1.01781320736148</v>
       </c>
-      <c r="C101">
-        <v>0.8967962409226826</v>
-      </c>
       <c r="D101">
-        <v>1.111215834118756</v>
+        <v>1.166716049382716</v>
       </c>
       <c r="E101">
         <v>1.01089218620151</v>
       </c>
       <c r="F101">
-        <v>0.8729016786570745</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="G101">
-        <v>1.166716049382716</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="H101">
-        <v>1.039950969392112</v>
+        <v>1.027740178719353</v>
       </c>
       <c r="I101">
         <v>1.049366195966459</v>
@@ -4242,25 +4230,25 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>0.8946604015378042</v>
+      </c>
+      <c r="C102">
         <v>1.013482924908966</v>
       </c>
-      <c r="C102">
-        <v>0.8946604015378042</v>
-      </c>
       <c r="D102">
-        <v>1.106503298774741</v>
+        <v>1.167012345679012</v>
       </c>
       <c r="E102">
         <v>0.9806695466673031</v>
       </c>
       <c r="F102">
-        <v>0.8609112709832135</v>
+        <v>0.8609180880185302</v>
       </c>
       <c r="G102">
-        <v>1.167012345679012</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="H102">
-        <v>1.033787692376803</v>
+        <v>1.02045801370389</v>
       </c>
       <c r="I102">
         <v>1.047214513334935</v>
@@ -4274,25 +4262,25 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>0.9005553182400683</v>
+      </c>
+      <c r="C103">
         <v>1.01446708001181</v>
       </c>
-      <c r="C103">
-        <v>0.9005553182400683</v>
-      </c>
       <c r="D103">
-        <v>1.133836003770028</v>
+        <v>1.163654320987654</v>
       </c>
       <c r="E103">
         <v>0.9797585453973902</v>
       </c>
       <c r="F103">
-        <v>0.8705035971223022</v>
+        <v>0.8704990524320909</v>
       </c>
       <c r="G103">
-        <v>1.163654320987654</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="H103">
-        <v>1.037810529720615</v>
+        <v>1.031248673387281</v>
       </c>
       <c r="I103">
         <v>1.051192770346358</v>
@@ -4306,25 +4294,25 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>0.9018368218709953</v>
+      </c>
+      <c r="C104">
         <v>1.013679755929535</v>
       </c>
-      <c r="C104">
-        <v>0.9018368218709953</v>
-      </c>
       <c r="D104">
-        <v>1.113100848256362</v>
+        <v>1.158617283950617</v>
       </c>
       <c r="E104">
         <v>0.9755672921580087</v>
       </c>
       <c r="F104">
-        <v>0.8848920863309353</v>
+        <v>0.8849231417140451</v>
       </c>
       <c r="G104">
-        <v>1.158617283950617</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="H104">
-        <v>1.035073146871778</v>
+        <v>1.025050046119637</v>
       </c>
       <c r="I104">
         <v>1.055659475020849</v>
@@ -4338,25 +4326,25 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>0.903630926954293</v>
+      </c>
+      <c r="C105">
         <v>1.015451235114654</v>
       </c>
-      <c r="C105">
-        <v>0.903630926954293</v>
-      </c>
       <c r="D105">
-        <v>1.105560791705938</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="E105">
         <v>0.9705915053980027</v>
       </c>
       <c r="F105">
-        <v>0.8952837729816148</v>
+        <v>0.8952937460518005</v>
       </c>
       <c r="G105">
-        <v>1.133333333333333</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="H105">
-        <v>1.027101935261132</v>
+        <v>1.02097967225989</v>
       </c>
       <c r="I105">
         <v>1.049857784772055</v>
@@ -4370,25 +4358,25 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>0.8973942759504484</v>
+      </c>
+      <c r="C106">
         <v>1.01180986123413</v>
       </c>
-      <c r="C106">
-        <v>0.8973942759504484</v>
-      </c>
       <c r="D106">
-        <v>1.103675777568332</v>
+        <v>1.13679012345679</v>
       </c>
       <c r="E106">
         <v>0.9788513722187088</v>
       </c>
       <c r="F106">
-        <v>0.9008792965627499</v>
+        <v>0.9008738681827754</v>
       </c>
       <c r="G106">
-        <v>1.13679012345679</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="H106">
-        <v>1.027880153160596</v>
+        <v>1.020591073756248</v>
       </c>
       <c r="I106">
         <v>1.051167641206136</v>
@@ -4402,25 +4390,25 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>0.8967962409226826</v>
+      </c>
+      <c r="C107">
         <v>1.017911622871765</v>
       </c>
-      <c r="C107">
-        <v>0.8967962409226826</v>
-      </c>
       <c r="D107">
-        <v>1.141376060320452</v>
+        <v>1.141728395061728</v>
       </c>
       <c r="E107">
         <v>1.024708048933364</v>
       </c>
       <c r="F107">
-        <v>0.903277378097522</v>
+        <v>0.903295430616972</v>
       </c>
       <c r="G107">
-        <v>1.141728395061728</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="H107">
-        <v>1.039900470824074</v>
+        <v>1.039803716885603</v>
       </c>
       <c r="I107">
         <v>1.062591976579641</v>
@@ -4434,25 +4422,25 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>0.8851772746689448</v>
+      </c>
+      <c r="C108">
         <v>1.015943312666076</v>
       </c>
-      <c r="C108">
-        <v>0.8851772746689448</v>
-      </c>
       <c r="D108">
-        <v>1.152686145146089</v>
+        <v>1.142617283950617</v>
       </c>
       <c r="E108">
         <v>1.046192225799736</v>
       </c>
       <c r="F108">
-        <v>0.8745003996802558</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="G108">
-        <v>1.142617283950617</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="H108">
-        <v>1.038325868319526</v>
+        <v>1.040520485997871</v>
       </c>
       <c r="I108">
         <v>1.056353667519487</v>
@@ -4466,25 +4454,25 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>0.8677488252883383</v>
+      </c>
+      <c r="C109">
         <v>1.010136797559295</v>
       </c>
-      <c r="C109">
-        <v>0.8677488252883383</v>
-      </c>
       <c r="D109">
-        <v>1.144203581526861</v>
+        <v>1.103506172839506</v>
       </c>
       <c r="E109">
         <v>1.035734865725759</v>
       </c>
       <c r="F109">
-        <v>0.8760991207034374</v>
+        <v>0.8760791745630658</v>
       </c>
       <c r="G109">
-        <v>1.103506172839506</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="H109">
-        <v>1.019561725396301</v>
+        <v>1.028497022451166</v>
       </c>
       <c r="I109">
         <v>1.046575290830534</v>
@@ -4498,25 +4486,25 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.863049978641606</v>
+      </c>
+      <c r="C110">
         <v>0.9916346816258242</v>
       </c>
-      <c r="C110">
-        <v>0.863049978641606</v>
-      </c>
       <c r="D110">
-        <v>1.076343072573044</v>
+        <v>1.05679012345679</v>
       </c>
       <c r="E110">
         <v>0.9894563952823954</v>
       </c>
       <c r="F110">
-        <v>0.8665067945643485</v>
+        <v>0.8664982101495051</v>
       </c>
       <c r="G110">
-        <v>1.05679012345679</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="H110">
-        <v>0.9865908218523807</v>
+        <v>0.9908710885869084</v>
       </c>
       <c r="I110">
         <v>1.031282638434078</v>
@@ -4530,25 +4518,25 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.8614267407090986</v>
+      </c>
+      <c r="C111">
         <v>0.993012498769806</v>
       </c>
-      <c r="C111">
-        <v>0.8614267407090986</v>
-      </c>
       <c r="D111">
-        <v>1.105560791705938</v>
+        <v>1.061037037037037</v>
       </c>
       <c r="E111">
         <v>1.01052108653389</v>
       </c>
       <c r="F111">
-        <v>0.8745003996802558</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="G111">
-        <v>1.061037037037037</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="H111">
-        <v>0.9943609435048453</v>
+        <v>1.004142713104854</v>
       </c>
       <c r="I111">
         <v>1.03911664789834</v>
@@ -4562,25 +4550,25 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>0.8613413071337035</v>
+      </c>
+      <c r="C112">
         <v>1.005904930617065</v>
       </c>
-      <c r="C112">
-        <v>0.8613413071337035</v>
-      </c>
       <c r="D112">
-        <v>1.152686145146089</v>
+        <v>1.078617283950617</v>
       </c>
       <c r="E112">
         <v>1.032809359592988</v>
       </c>
       <c r="F112">
-        <v>0.8928856914468426</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="G112">
-        <v>1.078617283950617</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="H112">
-        <v>1.011997495701786</v>
+        <v>1.028270683065128</v>
       </c>
       <c r="I112">
         <v>1.045648653784841</v>
@@ -4594,25 +4582,25 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>0.8572404955147372</v>
+      </c>
+      <c r="C113">
         <v>1.002066725715973</v>
       </c>
-      <c r="C113">
-        <v>0.8572404955147372</v>
-      </c>
       <c r="D113">
-        <v>1.157398680490104</v>
+        <v>1.07358024691358</v>
       </c>
       <c r="E113">
         <v>1.065228282028091</v>
       </c>
       <c r="F113">
-        <v>0.9264588329336531</v>
+        <v>0.9264582017266794</v>
       </c>
       <c r="G113">
-        <v>1.07358024691358</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="H113">
-        <v>1.016763146590405</v>
+        <v>1.035198268236186</v>
       </c>
       <c r="I113">
         <v>1.053410416970965</v>
@@ -4626,25 +4614,25 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>0.8598889363519863</v>
+      </c>
+      <c r="C114">
         <v>1.007085916740478</v>
       </c>
-      <c r="C114">
-        <v>0.8598889363519863</v>
-      </c>
       <c r="D114">
-        <v>1.161168708765316</v>
+        <v>1.079407407407407</v>
       </c>
       <c r="E114">
         <v>1.06823848467936</v>
       </c>
       <c r="F114">
-        <v>0.9208633093525179</v>
+        <v>0.9208780795957044</v>
       </c>
       <c r="G114">
-        <v>1.079407407407407</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="H114">
-        <v>1.020119924777855</v>
+        <v>1.038104421439752</v>
       </c>
       <c r="I114">
         <v>1.058532049862497</v>
@@ -4658,25 +4646,25 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>0.8666381888082015</v>
+      </c>
+      <c r="C115">
         <v>1.022537151855132</v>
       </c>
-      <c r="C115">
-        <v>0.8666381888082015</v>
-      </c>
       <c r="D115">
-        <v>1.190386427898209</v>
+        <v>1.096691358024692</v>
       </c>
       <c r="E115">
         <v>1.082671176758622</v>
       </c>
       <c r="F115">
-        <v>0.9200639488409272</v>
+        <v>0.9200884396715098</v>
       </c>
       <c r="G115">
-        <v>1.096691358024692</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="H115">
-        <v>1.034311326945669</v>
+        <v>1.054908959517707</v>
       </c>
       <c r="I115">
         <v>1.066410035322148</v>
@@ -4690,25 +4678,25 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>0.8687740281930797</v>
+      </c>
+      <c r="C116">
         <v>1.01692746776892</v>
       </c>
-      <c r="C116">
-        <v>0.8687740281930797</v>
-      </c>
       <c r="D116">
-        <v>1.175306314797361</v>
+        <v>1.089975308641975</v>
       </c>
       <c r="E116">
         <v>1.117911740204111</v>
       </c>
       <c r="F116">
-        <v>0.9072741806554757</v>
+        <v>0.9072962728995578</v>
       </c>
       <c r="G116">
-        <v>1.089975308641975</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="H116">
-        <v>1.032315252087656</v>
+        <v>1.051071527018413</v>
       </c>
       <c r="I116">
         <v>1.060900471328436</v>
@@ -4722,25 +4710,25 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>0.8883383169585647</v>
+      </c>
+      <c r="C117">
         <v>1.019289440015747</v>
       </c>
-      <c r="C117">
-        <v>0.8883383169585647</v>
-      </c>
       <c r="D117">
-        <v>1.193213949104618</v>
+        <v>1.117333333333333</v>
       </c>
       <c r="E117">
         <v>1.123907910311425</v>
       </c>
       <c r="F117">
-        <v>0.9096722621902478</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="G117">
-        <v>1.117333333333333</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="H117">
-        <v>1.047964072062325</v>
+        <v>1.064644340385134</v>
       </c>
       <c r="I117">
         <v>1.070094595507224</v>
@@ -4754,31 +4742,319 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.019289440015747</v>
+        <v>0.8780862879111491</v>
       </c>
       <c r="C118">
-        <v>0.8883383169585647</v>
+        <v>1.027457927369353</v>
       </c>
       <c r="D118">
-        <v>1.193213949104618</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="E118">
-        <v>1.138427044068423</v>
+        <v>1.138426987772964</v>
       </c>
       <c r="F118">
-        <v>0.9096722621902478</v>
+        <v>0.914455674878922</v>
       </c>
       <c r="G118">
-        <v>1.117333333333333</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="H118">
-        <v>1.049561176775595</v>
+        <v>1.075085296301259</v>
       </c>
       <c r="I118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="J118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.8652712516018795</v>
+      </c>
+      <c r="C119">
+        <v>1.014762326542663</v>
+      </c>
+      <c r="D119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="E119">
+        <v>1.169976708316675</v>
+      </c>
+      <c r="F119">
+        <v>0.8952937460518005</v>
+      </c>
+      <c r="G119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="H119">
+        <v>1.071736738920386</v>
+      </c>
+      <c r="I119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="J119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.8711661683041435</v>
+      </c>
+      <c r="C120">
+        <v>1.016336974707214</v>
+      </c>
+      <c r="D120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="E120">
+        <v>1.184750381992839</v>
+      </c>
+      <c r="F120">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="G120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="H120">
+        <v>1.087360314642884</v>
+      </c>
+      <c r="I120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="J120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.8601452370781716</v>
+      </c>
+      <c r="C121">
+        <v>1.011613030213562</v>
+      </c>
+      <c r="D121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="E121">
+        <v>1.147442677430058</v>
+      </c>
+      <c r="F121">
+        <v>0.8721309749420931</v>
+      </c>
+      <c r="G121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="H121">
+        <v>1.070096033599847</v>
+      </c>
+      <c r="I121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="J121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.8340025630072617</v>
+      </c>
+      <c r="C122">
+        <v>0.9947839779549256</v>
+      </c>
+      <c r="D122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="E122">
+        <v>1.132532487265123</v>
+      </c>
+      <c r="F122">
+        <v>0.8441250789639924</v>
+      </c>
+      <c r="G122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="H122">
+        <v>1.057692591327885</v>
+      </c>
+      <c r="I122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="J122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.8332336608287055</v>
+      </c>
+      <c r="C123">
+        <v>0.9928156677492372</v>
+      </c>
+      <c r="D123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="E123">
+        <v>1.151187676563671</v>
+      </c>
+      <c r="F123">
+        <v>0.8481259212465783</v>
+      </c>
+      <c r="G123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="H123">
+        <v>1.07459219947225</v>
+      </c>
+      <c r="I123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="J123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.8416915847928235</v>
+      </c>
+      <c r="C124">
+        <v>0.995079224485779</v>
+      </c>
+      <c r="D124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="E124">
+        <v>1.128655109358996</v>
+      </c>
+      <c r="F124">
+        <v>0.8521267635291641</v>
+      </c>
+      <c r="G124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="H124">
+        <v>1.075593151573389</v>
+      </c>
+      <c r="I124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="J124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.840666381888082</v>
+      </c>
+      <c r="C125">
+        <v>1.006200177147919</v>
+      </c>
+      <c r="D125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="E125">
+        <v>1.18879324040154</v>
+      </c>
+      <c r="F125">
+        <v>0.8752895346388714</v>
+      </c>
+      <c r="G125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="H125">
+        <v>1.11307723212752</v>
+      </c>
+      <c r="I125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="J125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.8326356258009397</v>
+      </c>
+      <c r="C126">
+        <v>0.9958665485680543</v>
+      </c>
+      <c r="D126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="E126">
+        <v>1.200642730888226</v>
+      </c>
+      <c r="F126">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="G126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="H126">
+        <v>1.121915600132839</v>
+      </c>
+      <c r="I126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="J126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.8311832550192225</v>
+      </c>
+      <c r="C127">
+        <v>0.9992126759177247</v>
+      </c>
+      <c r="D127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="E127">
+        <v>1.208409224303741</v>
+      </c>
+      <c r="F127">
+        <v>0.9008738681827754</v>
+      </c>
+      <c r="G127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="H127">
+        <v>1.136311746576711</v>
+      </c>
+      <c r="I127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="J127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4890,18 +5166,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -4933,254 +5209,233 @@
       <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>0.17</v>
       </c>
       <c r="J2">
-        <v>34.32</v>
+        <v>1.657299995422363</v>
       </c>
       <c r="K2">
-        <v>3.01</v>
+        <v>13.48019981384277</v>
       </c>
       <c r="L2">
-        <v>-5.03</v>
-      </c>
-      <c r="M2">
-        <v>-23.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.4625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>14.36</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K3">
-        <v>1.76</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L3">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M3">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="J4">
-        <v>141.9</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K4">
-        <v>9.640000000000001</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L4">
-        <v>12.41</v>
-      </c>
-      <c r="M4">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5">
         <v>0.11</v>
       </c>
       <c r="J5">
-        <v>48.82</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K5">
-        <v>4.98</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L5">
-        <v>15.45</v>
-      </c>
-      <c r="M5">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>44.9032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>0.11</v>
       </c>
       <c r="J6">
-        <v>67.98</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K6">
-        <v>3.81</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L6">
-        <v>1.45</v>
-      </c>
-      <c r="M6">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="J7">
-        <v>39.53</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K7">
-        <v>3.11</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L7">
-        <v>16.99</v>
-      </c>
-      <c r="M7">
-        <v>24.35</v>
+        <v>31.9832</v>
       </c>
     </row>
   </sheetData>
@@ -5198,19 +5453,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5218,19 +5473,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5238,19 +5493,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5258,19 +5513,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5278,19 +5533,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5298,19 +5553,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5318,19 +5573,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5338,19 +5593,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5358,19 +5613,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5378,19 +5633,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5398,19 +5653,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5418,19 +5673,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5438,19 +5693,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5458,19 +5713,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5478,19 +5733,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5498,19 +5753,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5518,19 +5773,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5538,19 +5793,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5558,19 +5813,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5578,19 +5833,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5598,19 +5853,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5628,109 +5883,109 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
